--- a/Documentation/Specifications/3FM_Logbook_configdata.xlsx
+++ b/Documentation/Specifications/3FM_Logbook_configdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y1bbuehl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zomrie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE67C19-B619-4979-A3A5-34184F18E88F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DED908-4EBD-4EF6-A0F2-8BDC9F95A186}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5C435FD2-56A3-43AE-8C91-117303C2B720}"/>
+    <workbookView xWindow="1356" yWindow="540" windowWidth="28572" windowHeight="16320" activeTab="3" xr2:uid="{5C435FD2-56A3-43AE-8C91-117303C2B720}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="86">
   <si>
     <t>Machine</t>
   </si>
@@ -265,6 +265,36 @@
   </si>
   <si>
     <t>monitoring</t>
+  </si>
+  <si>
+    <t>Frühschicht</t>
+  </si>
+  <si>
+    <t>Early Shift</t>
+  </si>
+  <si>
+    <t>Late Shift</t>
+  </si>
+  <si>
+    <t>Night Shift</t>
+  </si>
+  <si>
+    <t>Spätschicht</t>
+  </si>
+  <si>
+    <t>Nachtschicht</t>
+  </si>
+  <si>
+    <t>Schicht</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>Passdown</t>
+  </si>
+  <si>
+    <t>Übergabe</t>
   </si>
 </sst>
 </file>
@@ -628,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF8E14A-D985-477C-B4D8-5F2C87200B08}">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
@@ -1072,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD18D0F-B3D4-4B80-A37C-5632ECBD4CEC}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1196,6 +1226,46 @@
         <v>63</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
